--- a/notebooks/ANKH/input/ANKH_individuals.xlsx
+++ b/notebooks/ANKH/input/ANKH_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/ANKH/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F495655-BE67-0D46-8FBE-465324CB2BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CFA808-2F5B-6C48-8C4B-30E5236379FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="10460" windowWidth="44900" windowHeight="22340" xr2:uid="{C6F78843-27FD-9146-A150-09AB12FF75A2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{C6F78843-27FD-9146-A150-09AB12FF75A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="173">
   <si>
     <t>PMID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>str</t>
   </si>
   <si>
-    <t>optional str</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -540,13 +537,31 @@
   </si>
   <si>
     <t>Congenital onset</t>
+  </si>
+  <si>
+    <t>HGNC_id</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>CURIE</t>
+  </si>
+  <si>
+    <t>ANKH</t>
+  </si>
+  <si>
+    <t>HGNC:15492</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -557,6 +572,21 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -582,9 +612,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,9 +635,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,7 +675,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -749,7 +781,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -891,7 +923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -899,19 +931,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B332D451-6D64-2F4E-B068-C8D1F4952700}">
-  <dimension ref="A1:BF9"/>
+  <dimension ref="A1:BH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1:AA1048576"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="14" width="10.83203125" customWidth="1"/>
+    <col min="4" max="16" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,166 +962,172 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
       <c r="Q1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T1" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="W1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X1" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="Y1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z1" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="AA1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AE1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AF1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AG1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>75</v>
-      </c>
       <c r="AK1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AL1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AO1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AP1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AQ1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AR1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AS1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AT1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="AU1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AV1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AW1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AX1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AY1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AZ1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="BA1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="BB1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="BC1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BD1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="BE1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="BF1" t="s">
-        <v>156</v>
+        <v>138</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1098,810 +1136,858 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>136</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
+        <v>127</v>
+      </c>
+      <c r="W3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" t="s">
+        <v>127</v>
+      </c>
+      <c r="S4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" t="s">
+        <v>127</v>
+      </c>
+      <c r="W4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" t="s">
+        <v>139</v>
+      </c>
+      <c r="V6" t="s">
         <v>137</v>
       </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="Z6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7" t="s">
         <v>94</v>
       </c>
-      <c r="AT2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="P7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T7" t="s">
+        <v>146</v>
+      </c>
+      <c r="V7" t="s">
+        <v>146</v>
+      </c>
+      <c r="W7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF7" t="s">
         <v>150</v>
       </c>
-      <c r="BF2" t="s">
-        <v>166</v>
+      <c r="BG7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="J8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
         <v>128</v>
       </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>59</v>
+      <c r="N8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" t="s">
-        <v>128</v>
-      </c>
-      <c r="U4" t="s">
-        <v>59</v>
-      </c>
-      <c r="V4" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>116</v>
-      </c>
-      <c r="X5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>116</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>116</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>116</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L6" t="s">
-        <v>144</v>
-      </c>
-      <c r="M6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="J9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" t="s">
         <v>140</v>
       </c>
-      <c r="T6" t="s">
-        <v>138</v>
-      </c>
-      <c r="X6" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>134</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M7" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" t="s">
-        <v>147</v>
-      </c>
-      <c r="R7" t="s">
-        <v>147</v>
-      </c>
-      <c r="T7" t="s">
-        <v>147</v>
-      </c>
-      <c r="U7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>151</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" t="s">
-        <v>154</v>
-      </c>
-      <c r="M8" t="s">
-        <v>95</v>
-      </c>
-      <c r="N8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="N9" t="s">
         <v>161</v>
       </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>164</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K9" t="s">
-        <v>141</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" t="s">
+        <v>161</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF9" t="s">
         <v>162</v>
-      </c>
-      <c r="M9" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" t="s">
-        <v>162</v>
-      </c>
-      <c r="R9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/ANKH/input/ANKH_individuals.xlsx
+++ b/notebooks/ANKH/input/ANKH_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/ANKH/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CFA808-2F5B-6C48-8C4B-30E5236379FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC6E556-F24B-2B41-93C4-2D709F74AC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{C6F78843-27FD-9146-A150-09AB12FF75A2}"/>
   </bookViews>
@@ -494,9 +494,6 @@
     <t>c.1172T&gt;C</t>
   </si>
   <si>
-    <t>````</t>
-  </si>
-  <si>
     <t>P43Y</t>
   </si>
   <si>
@@ -555,6 +552,9 @@
   </si>
   <si>
     <t>optional</t>
+  </si>
+  <si>
+    <t>Patient C</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,10 +963,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -1122,12 +1122,12 @@
         <v>148</v>
       </c>
       <c r="BH1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1136,16 +1136,16 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>14</v>
@@ -1160,7 +1160,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -1304,7 +1304,7 @@
         <v>149</v>
       </c>
       <c r="BH2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.2">
@@ -1324,10 +1324,10 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
@@ -1434,10 +1434,10 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
@@ -1589,10 +1589,10 @@
         <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
@@ -1732,10 +1732,10 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
@@ -1750,7 +1750,7 @@
         <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N6" t="s">
         <v>143</v>
@@ -1812,10 +1812,10 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
@@ -1880,7 +1880,7 @@
         <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -1889,16 +1889,16 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
@@ -1907,7 +1907,7 @@
         <v>128</v>
       </c>
       <c r="N8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O8" t="s">
         <v>94</v>
@@ -1916,7 +1916,7 @@
         <v>17</v>
       </c>
       <c r="V8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL8" t="s">
         <v>128</v>
@@ -1925,7 +1925,7 @@
         <v>128</v>
       </c>
       <c r="BF8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BH8" t="s">
         <v>96</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
         <v>158</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>159</v>
-      </c>
-      <c r="C9" t="s">
-        <v>160</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1948,28 +1948,28 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
       <c r="J9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
         <v>163</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>164</v>
       </c>
       <c r="M9" t="s">
         <v>140</v>
       </c>
       <c r="N9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O9" t="s">
         <v>94</v>
@@ -1978,16 +1978,16 @@
         <v>17</v>
       </c>
       <c r="R9" t="s">
+        <v>160</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF9" t="s">
         <v>161</v>
-      </c>
-      <c r="T9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
